--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fndc5-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fndc5-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4021426666666666</v>
+        <v>0.455435</v>
       </c>
       <c r="H2">
-        <v>1.206428</v>
+        <v>1.366305</v>
       </c>
       <c r="I2">
-        <v>0.1795998161169229</v>
+        <v>0.08213513046080446</v>
       </c>
       <c r="J2">
-        <v>0.1934923663387552</v>
+        <v>0.1030206357201239</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N2">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O2">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P2">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q2">
-        <v>4.296578577292444</v>
+        <v>6.330249860003335</v>
       </c>
       <c r="R2">
-        <v>38.669207195632</v>
+        <v>56.97224874003001</v>
       </c>
       <c r="S2">
-        <v>0.008450684969101735</v>
+        <v>0.003986434760691757</v>
       </c>
       <c r="T2">
-        <v>0.009467072401794212</v>
+        <v>0.005150283730907834</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4021426666666666</v>
+        <v>0.455435</v>
       </c>
       <c r="H3">
-        <v>1.206428</v>
+        <v>1.366305</v>
       </c>
       <c r="I3">
-        <v>0.1795998161169229</v>
+        <v>0.08213513046080446</v>
       </c>
       <c r="J3">
-        <v>0.1934923663387552</v>
+        <v>0.1030206357201239</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P3">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q3">
-        <v>28.29570373217111</v>
+        <v>32.04547763130834</v>
       </c>
       <c r="R3">
-        <v>254.66133358954</v>
+        <v>288.409298681775</v>
       </c>
       <c r="S3">
-        <v>0.05565313747160611</v>
+        <v>0.02018043659849319</v>
       </c>
       <c r="T3">
-        <v>0.06234669541665634</v>
+        <v>0.0260721623543642</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4021426666666666</v>
+        <v>0.455435</v>
       </c>
       <c r="H4">
-        <v>1.206428</v>
+        <v>1.366305</v>
       </c>
       <c r="I4">
-        <v>0.1795998161169229</v>
+        <v>0.08213513046080446</v>
       </c>
       <c r="J4">
-        <v>0.1934923663387552</v>
+        <v>0.1030206357201239</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N4">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O4">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P4">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q4">
-        <v>23.76304234265244</v>
+        <v>37.34916090927501</v>
       </c>
       <c r="R4">
-        <v>213.867381083872</v>
+        <v>336.142448183475</v>
       </c>
       <c r="S4">
-        <v>0.04673811525442346</v>
+        <v>0.0235203975552594</v>
       </c>
       <c r="T4">
-        <v>0.0523594386318796</v>
+        <v>0.03038723273934033</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4021426666666666</v>
+        <v>0.455435</v>
       </c>
       <c r="H5">
-        <v>1.206428</v>
+        <v>1.366305</v>
       </c>
       <c r="I5">
-        <v>0.1795998161169229</v>
+        <v>0.08213513046080446</v>
       </c>
       <c r="J5">
-        <v>0.1934923663387552</v>
+        <v>0.1030206357201239</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N5">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O5">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P5">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q5">
-        <v>10.49527192780866</v>
+        <v>11.4087134712275</v>
       </c>
       <c r="R5">
-        <v>62.97163156685199</v>
+        <v>68.452280827365</v>
       </c>
       <c r="S5">
-        <v>0.02064252640361551</v>
+        <v>0.007184565058613605</v>
       </c>
       <c r="T5">
-        <v>0.01541684038895524</v>
+        <v>0.006188077109215515</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4021426666666666</v>
+        <v>0.455435</v>
       </c>
       <c r="H6">
-        <v>1.206428</v>
+        <v>1.366305</v>
       </c>
       <c r="I6">
-        <v>0.1795998161169229</v>
+        <v>0.08213513046080446</v>
       </c>
       <c r="J6">
-        <v>0.1934923663387552</v>
+        <v>0.1030206357201239</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N6">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O6">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P6">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q6">
-        <v>24.46327031193956</v>
+        <v>43.29268861403334</v>
       </c>
       <c r="R6">
-        <v>220.169432807456</v>
+        <v>389.6341975263001</v>
       </c>
       <c r="S6">
-        <v>0.04811535201817611</v>
+        <v>0.02726329648774651</v>
       </c>
       <c r="T6">
-        <v>0.0539023194994698</v>
+        <v>0.03522287978629603</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>3.65289</v>
       </c>
       <c r="I7">
-        <v>0.5438023423655177</v>
+        <v>0.2195926946830817</v>
       </c>
       <c r="J7">
-        <v>0.5858669809347723</v>
+        <v>0.2754312177849627</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N7">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O7">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P7">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q7">
-        <v>13.00942030457333</v>
+        <v>16.92426391699334</v>
       </c>
       <c r="R7">
-        <v>117.08478274116</v>
+        <v>152.31837525294</v>
       </c>
       <c r="S7">
-        <v>0.02558745537801016</v>
+        <v>0.01065794802257425</v>
       </c>
       <c r="T7">
-        <v>0.02866492994674367</v>
+        <v>0.01376956092365608</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>3.65289</v>
       </c>
       <c r="I8">
-        <v>0.5438023423655177</v>
+        <v>0.2195926946830817</v>
       </c>
       <c r="J8">
-        <v>0.5858669809347723</v>
+        <v>0.2754312177849627</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P8">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q8">
         <v>85.67531025988333</v>
@@ -948,10 +948,10 @@
         <v>771.07779233895</v>
       </c>
       <c r="S8">
-        <v>0.1685096742935801</v>
+        <v>0.05395348406561476</v>
       </c>
       <c r="T8">
-        <v>0.1887768024453592</v>
+        <v>0.06970533017344842</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>3.65289</v>
       </c>
       <c r="I9">
-        <v>0.5438023423655177</v>
+        <v>0.2195926946830817</v>
       </c>
       <c r="J9">
-        <v>0.5858669809347723</v>
+        <v>0.2754312177849627</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N9">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O9">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P9">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q9">
-        <v>71.95106524637333</v>
+        <v>99.85499313395</v>
       </c>
       <c r="R9">
-        <v>647.55958721736</v>
+        <v>898.6949382055501</v>
       </c>
       <c r="S9">
-        <v>0.1415162726923869</v>
+        <v>0.06288304955747911</v>
       </c>
       <c r="T9">
-        <v>0.158536829204898</v>
+        <v>0.08124190323625319</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>3.65289</v>
       </c>
       <c r="I10">
-        <v>0.5438023423655177</v>
+        <v>0.2195926946830817</v>
       </c>
       <c r="J10">
-        <v>0.5858669809347723</v>
+        <v>0.2754312177849627</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N10">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O10">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P10">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q10">
-        <v>31.778169830585</v>
+        <v>30.501809882795</v>
       </c>
       <c r="R10">
-        <v>190.66901898351</v>
+        <v>183.01085929677</v>
       </c>
       <c r="S10">
-        <v>0.06250259300555283</v>
+        <v>0.01920832160971309</v>
       </c>
       <c r="T10">
-        <v>0.04667996937107784</v>
+        <v>0.0165441574110336</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>3.65289</v>
       </c>
       <c r="I11">
-        <v>0.5438023423655177</v>
+        <v>0.2195926946830817</v>
       </c>
       <c r="J11">
-        <v>0.5858669809347723</v>
+        <v>0.2754312177849627</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N11">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O11">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P11">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q11">
-        <v>74.07125455458667</v>
+        <v>115.7453345419333</v>
       </c>
       <c r="R11">
-        <v>666.6412909912801</v>
+        <v>1041.7080108774</v>
       </c>
       <c r="S11">
-        <v>0.1456863469959876</v>
+        <v>0.0728898914277005</v>
       </c>
       <c r="T11">
-        <v>0.1632084499666936</v>
+        <v>0.0941702660405714</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.482296</v>
+        <v>0.106879</v>
       </c>
       <c r="H12">
-        <v>0.964592</v>
+        <v>0.320637</v>
       </c>
       <c r="I12">
-        <v>0.2153968730349283</v>
+        <v>0.01927502411654862</v>
       </c>
       <c r="J12">
-        <v>0.1547056174354645</v>
+        <v>0.02417632049607765</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N12">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O12">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P12">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q12">
-        <v>5.152953996874667</v>
+        <v>1.485548486144667</v>
       </c>
       <c r="R12">
-        <v>30.917723981248</v>
+        <v>13.369936375302</v>
       </c>
       <c r="S12">
-        <v>0.01013503886976568</v>
+        <v>0.0009355147513651217</v>
       </c>
       <c r="T12">
-        <v>0.007569338826843778</v>
+        <v>0.001208640475316342</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.482296</v>
+        <v>0.106879</v>
       </c>
       <c r="H13">
-        <v>0.964592</v>
+        <v>0.320637</v>
       </c>
       <c r="I13">
-        <v>0.2153968730349283</v>
+        <v>0.01927502411654862</v>
       </c>
       <c r="J13">
-        <v>0.1547056174354645</v>
+        <v>0.02417632049607765</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P13">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q13">
-        <v>33.93548075942667</v>
+        <v>7.520257783781667</v>
       </c>
       <c r="R13">
-        <v>203.61288455656</v>
+        <v>67.682320054035</v>
       </c>
       <c r="S13">
-        <v>0.06674567961786135</v>
+        <v>0.00473583471452645</v>
       </c>
       <c r="T13">
-        <v>0.04984891234731238</v>
+        <v>0.006118472757412345</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.482296</v>
+        <v>0.106879</v>
       </c>
       <c r="H14">
-        <v>0.964592</v>
+        <v>0.320637</v>
       </c>
       <c r="I14">
-        <v>0.2153968730349283</v>
+        <v>0.01927502411654862</v>
       </c>
       <c r="J14">
-        <v>0.1547056174354645</v>
+        <v>0.02417632049607765</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N14">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O14">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P14">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q14">
-        <v>28.49938894743466</v>
+        <v>8.764897227535</v>
       </c>
       <c r="R14">
-        <v>170.996333684608</v>
+        <v>78.884075047815</v>
       </c>
       <c r="S14">
-        <v>0.05605375381228076</v>
+        <v>0.005519638522091121</v>
       </c>
       <c r="T14">
-        <v>0.04186366333407548</v>
+        <v>0.007131109923365475</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.482296</v>
+        <v>0.106879</v>
       </c>
       <c r="H15">
-        <v>0.964592</v>
+        <v>0.320637</v>
       </c>
       <c r="I15">
-        <v>0.2153968730349283</v>
+        <v>0.01927502411654862</v>
       </c>
       <c r="J15">
-        <v>0.1547056174354645</v>
+        <v>0.02417632049607765</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N15">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O15">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P15">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q15">
-        <v>12.587144039332</v>
+        <v>2.6773346077735</v>
       </c>
       <c r="R15">
-        <v>50.348576157328</v>
+        <v>16.064007646641</v>
       </c>
       <c r="S15">
-        <v>0.02475690529652366</v>
+        <v>0.001686034514035073</v>
       </c>
       <c r="T15">
-        <v>0.01232643879656566</v>
+        <v>0.001452184160979822</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.482296</v>
+        <v>0.106879</v>
       </c>
       <c r="H16">
-        <v>0.964592</v>
+        <v>0.320637</v>
       </c>
       <c r="I16">
-        <v>0.2153968730349283</v>
+        <v>0.01927502411654862</v>
       </c>
       <c r="J16">
-        <v>0.1547056174354645</v>
+        <v>0.02417632049607765</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N16">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O16">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P16">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q16">
-        <v>29.33918332059734</v>
+        <v>10.15969186904667</v>
       </c>
       <c r="R16">
-        <v>176.035099923584</v>
+        <v>91.43722682142001</v>
       </c>
       <c r="S16">
-        <v>0.0577054954384968</v>
+        <v>0.006398001614530853</v>
       </c>
       <c r="T16">
-        <v>0.04309726413066721</v>
+        <v>0.008265913179003662</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1370353333333333</v>
+        <v>3.372403</v>
       </c>
       <c r="H17">
-        <v>0.411106</v>
+        <v>6.744806000000001</v>
       </c>
       <c r="I17">
-        <v>0.06120096848263116</v>
+        <v>0.6081938374771556</v>
       </c>
       <c r="J17">
-        <v>0.06593503529100808</v>
+        <v>0.5085644873793963</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N17">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O17">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P17">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q17">
-        <v>1.464114918251556</v>
+        <v>46.87420514151268</v>
       </c>
       <c r="R17">
-        <v>13.177034264264</v>
+        <v>281.2452308490761</v>
       </c>
       <c r="S17">
-        <v>0.002879680590062182</v>
+        <v>0.02951873383965036</v>
       </c>
       <c r="T17">
-        <v>0.003226027800094173</v>
+        <v>0.02542453157232795</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1370353333333333</v>
+        <v>3.372403</v>
       </c>
       <c r="H18">
-        <v>0.411106</v>
+        <v>6.744806000000001</v>
       </c>
       <c r="I18">
-        <v>0.06120096848263116</v>
+        <v>0.6081938374771556</v>
       </c>
       <c r="J18">
-        <v>0.06593503529100808</v>
+        <v>0.5085644873793963</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P18">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q18">
-        <v>9.642128314758891</v>
+        <v>237.2902058477217</v>
       </c>
       <c r="R18">
-        <v>86.77915483283</v>
+        <v>1423.74123508633</v>
       </c>
       <c r="S18">
-        <v>0.0189645289510871</v>
+        <v>0.14943200440473</v>
       </c>
       <c r="T18">
-        <v>0.02124544570082916</v>
+        <v>0.1287060188469557</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1370353333333333</v>
+        <v>3.372403</v>
       </c>
       <c r="H19">
-        <v>0.411106</v>
+        <v>6.744806000000001</v>
       </c>
       <c r="I19">
-        <v>0.06120096848263116</v>
+        <v>0.6081938374771556</v>
       </c>
       <c r="J19">
-        <v>0.06593503529100808</v>
+        <v>0.5085644873793963</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N19">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O19">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P19">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q19">
-        <v>8.097565113971555</v>
+        <v>276.562895468995</v>
       </c>
       <c r="R19">
-        <v>72.87808602574401</v>
+        <v>1659.37737281397</v>
       </c>
       <c r="S19">
-        <v>0.01592661941681146</v>
+        <v>0.1741637319849144</v>
       </c>
       <c r="T19">
-        <v>0.01784215832042816</v>
+        <v>0.1500074944494085</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1370353333333333</v>
+        <v>3.372403</v>
       </c>
       <c r="H20">
-        <v>0.411106</v>
+        <v>6.744806000000001</v>
       </c>
       <c r="I20">
-        <v>0.06120096848263116</v>
+        <v>0.6081938374771556</v>
       </c>
       <c r="J20">
-        <v>0.06593503529100808</v>
+        <v>0.5085644873793963</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N20">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O20">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P20">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q20">
-        <v>3.576400134242334</v>
+        <v>84.47918920703951</v>
       </c>
       <c r="R20">
-        <v>21.458400805454</v>
+        <v>337.916756828158</v>
       </c>
       <c r="S20">
-        <v>0.007034208804574133</v>
+        <v>0.05320023440746473</v>
       </c>
       <c r="T20">
-        <v>0.005253488467560296</v>
+        <v>0.03054763000552546</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.372403</v>
+      </c>
+      <c r="H21">
+        <v>6.744806000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.6081938374771556</v>
+      </c>
+      <c r="J21">
+        <v>0.5085644873793963</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>95.05788666666668</v>
+      </c>
+      <c r="N21">
+        <v>285.17366</v>
+      </c>
+      <c r="O21">
+        <v>0.3319322235782747</v>
+      </c>
+      <c r="P21">
+        <v>0.3419012078510756</v>
+      </c>
+      <c r="Q21">
+        <v>320.5735021683267</v>
+      </c>
+      <c r="R21">
+        <v>1923.44101300996</v>
+      </c>
+      <c r="S21">
+        <v>0.2018791328403961</v>
+      </c>
+      <c r="T21">
+        <v>0.1738788125051787</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3926006666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.177802</v>
+      </c>
+      <c r="I22">
+        <v>0.0708033132624095</v>
+      </c>
+      <c r="J22">
+        <v>0.08880733861943957</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.89934866666667</v>
+      </c>
+      <c r="N22">
+        <v>41.69804600000001</v>
+      </c>
+      <c r="O22">
+        <v>0.04853507553134179</v>
+      </c>
+      <c r="P22">
+        <v>0.04999273878390351</v>
+      </c>
+      <c r="Q22">
+        <v>5.456893552765778</v>
+      </c>
+      <c r="R22">
+        <v>49.11204197489201</v>
+      </c>
+      <c r="S22">
+        <v>0.003436444157060299</v>
+      </c>
+      <c r="T22">
+        <v>0.004439722081695309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3926006666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.177802</v>
+      </c>
+      <c r="I23">
+        <v>0.0708033132624095</v>
+      </c>
+      <c r="J23">
+        <v>0.08880733861943957</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>70.36235166666667</v>
+      </c>
+      <c r="N23">
+        <v>211.087055</v>
+      </c>
+      <c r="O23">
+        <v>0.245697991654417</v>
+      </c>
+      <c r="P23">
+        <v>0.253077086664408</v>
+      </c>
+      <c r="Q23">
+        <v>27.62430617256778</v>
+      </c>
+      <c r="R23">
+        <v>248.61875555311</v>
+      </c>
+      <c r="S23">
+        <v>0.01739623187105256</v>
+      </c>
+      <c r="T23">
+        <v>0.02247510253222733</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3926006666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.177802</v>
+      </c>
+      <c r="I24">
+        <v>0.0708033132624095</v>
+      </c>
+      <c r="J24">
+        <v>0.08880733861943957</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>82.007665</v>
+      </c>
+      <c r="N24">
+        <v>246.022995</v>
+      </c>
+      <c r="O24">
+        <v>0.2863622109480123</v>
+      </c>
+      <c r="P24">
+        <v>0.2949625822722868</v>
+      </c>
+      <c r="Q24">
+        <v>32.19626395077667</v>
+      </c>
+      <c r="R24">
+        <v>289.76637555699</v>
+      </c>
+      <c r="S24">
+        <v>0.02027539332826831</v>
+      </c>
+      <c r="T24">
+        <v>0.02619484192391927</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.1370353333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.411106</v>
-      </c>
-      <c r="I21">
-        <v>0.06120096848263116</v>
-      </c>
-      <c r="J21">
-        <v>0.06593503529100808</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>60.83231733333334</v>
-      </c>
-      <c r="N21">
-        <v>182.496952</v>
-      </c>
-      <c r="O21">
-        <v>0.2679031251727568</v>
-      </c>
-      <c r="P21">
-        <v>0.2785759485989269</v>
-      </c>
-      <c r="Q21">
-        <v>8.336176883212445</v>
-      </c>
-      <c r="R21">
-        <v>75.02559194891201</v>
-      </c>
-      <c r="S21">
-        <v>0.01639593072009628</v>
-      </c>
-      <c r="T21">
-        <v>0.0183679150020963</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3926006666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.177802</v>
+      </c>
+      <c r="I25">
+        <v>0.0708033132624095</v>
+      </c>
+      <c r="J25">
+        <v>0.08880733861943957</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>25.0501465</v>
+      </c>
+      <c r="N25">
+        <v>50.100293</v>
+      </c>
+      <c r="O25">
+        <v>0.0874724982879541</v>
+      </c>
+      <c r="P25">
+        <v>0.06006638442832619</v>
+      </c>
+      <c r="Q25">
+        <v>9.834704215997666</v>
+      </c>
+      <c r="R25">
+        <v>59.008225295986</v>
+      </c>
+      <c r="S25">
+        <v>0.006193342698127593</v>
+      </c>
+      <c r="T25">
+        <v>0.005334335741571796</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3926006666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.177802</v>
+      </c>
+      <c r="I26">
+        <v>0.0708033132624095</v>
+      </c>
+      <c r="J26">
+        <v>0.08880733861943957</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>95.05788666666668</v>
+      </c>
+      <c r="N26">
+        <v>285.17366</v>
+      </c>
+      <c r="O26">
+        <v>0.3319322235782747</v>
+      </c>
+      <c r="P26">
+        <v>0.3419012078510756</v>
+      </c>
+      <c r="Q26">
+        <v>37.31978967725778</v>
+      </c>
+      <c r="R26">
+        <v>335.87810709532</v>
+      </c>
+      <c r="S26">
+        <v>0.02350190120790073</v>
+      </c>
+      <c r="T26">
+        <v>0.03036333634002587</v>
       </c>
     </row>
   </sheetData>
